--- a/docs/view_functions_grise.xlsx
+++ b/docs/view_functions_grise.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
   <si>
     <t>page name</t>
   </si>
@@ -85,24 +85,6 @@
   </si>
   <si>
     <t>total stake no</t>
-  </si>
-  <si>
-    <t>short term stake no</t>
-  </si>
-  <si>
-    <t>short stake slot available</t>
-  </si>
-  <si>
-    <t>mid term stake no(3/6/9)</t>
-  </si>
-  <si>
-    <t>mid stake slot available(3/6/9)</t>
-  </si>
-  <si>
-    <t>long term stake no</t>
-  </si>
-  <si>
-    <t>long stake slot available</t>
   </si>
   <si>
     <t>tokens locked in liquidity</t>
@@ -360,38 +342,6 @@
     <t>add short+medium+long</t>
   </si>
   <si>
-    <t>getShortTermStakeCount</t>
-  </si>
-  <si>
-    <t>getLongTermStakeCount</t>
-  </si>
-  <si>
-    <t>shortTermStakeCount</t>
-  </si>
-  <si>
-    <t>getMediumTermStakeCount</t>
-  </si>
-  <si>
-    <t>3_Month_StakeCount
-6_Month_StakeCount
-9_Month_StakeCount</t>
-  </si>
-  <si>
-    <t>LongTermStakeCount</t>
-  </si>
-  <si>
-    <t>getMediumTermSlotLeft</t>
-  </si>
-  <si>
-    <t>getLongTermSlotLeft</t>
-  </si>
-  <si>
-    <t>shortTermSlotLeft</t>
-  </si>
-  <si>
-    <t>LongTermSlotLeft</t>
-  </si>
-  <si>
     <t>create staking using Grise</t>
   </si>
   <si>
@@ -474,6 +424,32 @@
   </si>
   <si>
     <t>getInflationRewardAmount</t>
+  </si>
+  <si>
+    <t>stake counts</t>
+  </si>
+  <si>
+    <t>getStakeCount</t>
+  </si>
+  <si>
+    <t>get Slots available</t>
+  </si>
+  <si>
+    <t>getSlotLeft</t>
+  </si>
+  <si>
+    <t>STStakeCount,
+MT3MonthStakeCount,
+MT6MonthStakeCount,
+MT9MonthStakeCount,
+LTStakeCount</t>
+  </si>
+  <si>
+    <t>STSlotLeft, 
+MT3MonthSlotLeft,
+MT6MonthSlotLeft, 
+MT9MonthSlotLeft, 
+LTSlotLeft</t>
   </si>
 </sst>
 </file>
@@ -902,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,249 +964,249 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1268,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1287,162 +1263,106 @@
         <v>19</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="C41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>103</v>
+      <c r="B45" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+      <c r="B46" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1389,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1483,13 +1403,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1497,10 +1417,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1508,10 +1428,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1519,7 +1439,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1530,7 +1450,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1538,10 +1458,10 @@
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1554,13 +1474,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1568,10 +1488,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1579,13 +1499,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1593,10 +1513,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1604,10 +1524,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1615,10 +1535,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1626,13 +1546,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>

--- a/docs/view_functions_grise.xlsx
+++ b/docs/view_functions_grise.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
   <si>
     <t>page name</t>
   </si>
@@ -274,34 +274,12 @@
 stakeID</t>
   </si>
   <si>
-    <t>startDays
-lockDays
-finalDay
-closeDay
-stakedAmount
-transcRewardAmount
-PenaltyRewardAmount
-reservoirRewardAmount
-penaltyAmount
-isActive
-isMature</t>
-  </si>
-  <si>
     <t>get weekly sliding bar data</t>
   </si>
   <si>
     <t>get Monthly sliding bar data</t>
   </si>
   <si>
-    <t>get reward scrape Day</t>
-  </si>
-  <si>
-    <t>getRewardScarpeDay</t>
-  </si>
-  <si>
-    <t>scrapeDay</t>
-  </si>
-  <si>
     <t>timeToClaimWeeklyReward</t>
   </si>
   <si>
@@ -309,9 +287,6 @@
   </si>
   <si>
     <t>Nothing</t>
-  </si>
-  <si>
-    <t>day</t>
   </si>
   <si>
     <t>slotLeft</t>
@@ -450,6 +425,53 @@
 MT6MonthSlotLeft, 
 MT9MonthSlotLeft, 
 LTSlotLeft</t>
+  </si>
+  <si>
+    <t>tokenHolderRewards</t>
+  </si>
+  <si>
+    <t>view token Holder reward Amount</t>
+  </si>
+  <si>
+    <t>viewTokenHolderTranscReward</t>
+  </si>
+  <si>
+    <t>claimTokenHolderTranscReward</t>
+  </si>
+  <si>
+    <t>claim token holder reward on every 7th day from launch</t>
+  </si>
+  <si>
+    <t>timer to check reward is ready for claim</t>
+  </si>
+  <si>
+    <t>daysLeft(if zero them claimReward button will be enabled)</t>
+  </si>
+  <si>
+    <t>startDays
+lockDays
+finalDay
+closeDay
+scrapeDay
+stakeType
+stakedAmount
+penaltyAmount
+isActive
+isMature</t>
+  </si>
+  <si>
+    <t>transcRewardAmount
+PenaltyRewardAmount
+reservoirRewardAmount</t>
+  </si>
+  <si>
+    <t>get Stake Reward Details</t>
+  </si>
+  <si>
+    <t>checkStakeRewards</t>
+  </si>
+  <si>
+    <t>dayLeft</t>
   </si>
 </sst>
 </file>
@@ -878,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +995,7 @@
         <v>74</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -988,7 +1010,7 @@
         <v>74</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,55 +1025,55 @@
         <v>74</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1063,13 +1085,13 @@
         <v>76</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>78</v>
       </c>
@@ -1080,133 +1102,133 @@
         <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>85</v>
+        <v>135</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>86</v>
+      <c r="E17" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,35 +1285,35 @@
         <v>19</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,7 +1324,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,13 +1340,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,9 +1382,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
